--- a/BDD/Matrice des dépendances fonctionnelles.xlsx
+++ b/BDD/Matrice des dépendances fonctionnelles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>N°</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Statut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Description_Produit</t>
   </si>
 </sst>
 </file>
@@ -218,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -243,6 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,22 +564,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V65"/>
+  <dimension ref="B1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="14" width="4.3125" customWidth="1"/>
-    <col min="15" max="15" width="4.68359375" customWidth="1"/>
-    <col min="16" max="20" width="4.3125" customWidth="1"/>
-    <col min="21" max="21" width="3.68359375" customWidth="1"/>
+    <col min="4" max="14" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" customWidth="1"/>
+    <col min="16" max="20" width="4.33203125" customWidth="1"/>
+    <col min="21" max="21" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B1" s="5"/>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -614,7 +621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -634,7 +641,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -662,7 +669,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <f xml:space="preserve"> 1 + B3</f>
         <v>2</v>
@@ -689,9 +696,9 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B56" si="0" xml:space="preserve"> 1 + B4</f>
+        <f t="shared" ref="B5:B40" si="0" xml:space="preserve"> 1 + B4</f>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -712,7 +719,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -735,7 +742,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -758,7 +765,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -781,7 +788,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -804,7 +811,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -833,7 +840,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -860,7 +867,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -883,7 +890,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -906,7 +913,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -929,7 +936,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -952,7 +959,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -975,7 +982,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -998,7 +1005,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1025,7 +1032,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1048,7 +1055,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1071,7 +1078,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1094,7 +1101,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1117,7 +1124,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1140,7 +1147,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1163,7 +1170,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1188,7 +1195,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1211,7 +1218,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1234,7 +1241,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1257,7 +1264,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1280,7 +1287,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1303,7 +1310,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1326,13 +1333,13 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
+      <c r="C32" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1342,20 +1349,20 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="13">
-        <v>1</v>
-      </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>3</v>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1367,18 +1374,18 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="13" t="s">
-        <v>2</v>
+      <c r="N33" s="13">
+        <v>1</v>
       </c>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1395,7 +1402,7 @@
       </c>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1412,13 +1419,13 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="13"/>
+      <c r="M35" s="1"/>
       <c r="N35" s="13">
         <v>1</v>
       </c>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1441,7 +1448,7 @@
       </c>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1464,7 +1471,7 @@
       </c>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1487,13 +1494,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1510,13 +1517,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>4</v>
+      <c r="C40" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1533,57 +1540,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="6">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="6">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="6">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
+    <row r="41" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="2:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -1597,147 +1585,66 @@
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
     </row>
-    <row r="44" spans="2:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="6">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="6">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="6">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="6">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="6">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="6">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="6">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="6">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="6">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="6">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="6">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="6">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="6">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
+    <row r="44" spans="2:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B53" s="14"/>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B54" s="12"/>
+      <c r="H54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
       <c r="V56" s="8"/>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="12"/>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="12"/>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="12"/>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="12"/>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="12"/>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="12"/>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="12"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BDD/Matrice des dépendances fonctionnelles.xlsx
+++ b/BDD/Matrice des dépendances fonctionnelles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>N°</t>
   </si>
@@ -41,18 +41,12 @@
     <t>Nom_Produit</t>
   </si>
   <si>
-    <t>Etat_Connexion</t>
-  </si>
-  <si>
     <t>Id_Activite</t>
   </si>
   <si>
     <t>Nom_Activite</t>
   </si>
   <si>
-    <t>Objet_Activite</t>
-  </si>
-  <si>
     <t>Validation_Activte</t>
   </si>
   <si>
@@ -74,24 +68,12 @@
     <t>Nom_Evenement_Passe</t>
   </si>
   <si>
-    <t>Photo_Evenement_Passe</t>
-  </si>
-  <si>
     <t>Id_Commentaire</t>
   </si>
   <si>
     <t>Description_Commentaire</t>
   </si>
   <si>
-    <t>Id_Like</t>
-  </si>
-  <si>
-    <t>Nombre_Like</t>
-  </si>
-  <si>
-    <t>Objet_Manifestation</t>
-  </si>
-  <si>
     <t>Description_Manifestation</t>
   </si>
   <si>
@@ -110,18 +92,6 @@
     <t>Prix_Produit</t>
   </si>
   <si>
-    <t>Nombre_Vendu</t>
-  </si>
-  <si>
-    <t>Nom_Categorie</t>
-  </si>
-  <si>
-    <t>Id_Panier</t>
-  </si>
-  <si>
-    <t>Quantite</t>
-  </si>
-  <si>
     <t>Prix_Panier</t>
   </si>
   <si>
@@ -131,25 +101,61 @@
     <t>Id_Utilisateur</t>
   </si>
   <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Prenom</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Mdp</t>
-  </si>
-  <si>
-    <t>Statut</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Description_Produit</t>
+  </si>
+  <si>
+    <t>Nom_Utilisateur</t>
+  </si>
+  <si>
+    <t>Prenom_Utilisateur</t>
+  </si>
+  <si>
+    <t>Mail_Utilisateur</t>
+  </si>
+  <si>
+    <t>Mdp_Utilisateur</t>
+  </si>
+  <si>
+    <t>Statut_Utilisateur</t>
+  </si>
+  <si>
+    <t>Etat_Connexion_Utilisateur</t>
+  </si>
+  <si>
+    <t>Description_Activite</t>
+  </si>
+  <si>
+    <t>Description_Evenement_Passe</t>
+  </si>
+  <si>
+    <t>Id_Image</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Id_Likes</t>
+  </si>
+  <si>
+    <t>Nombre_Likes</t>
+  </si>
+  <si>
+    <t>Nom_Manifestation</t>
+  </si>
+  <si>
+    <t>Nombre_Vendu_Produit</t>
+  </si>
+  <si>
+    <t>Categorie_Produit</t>
+  </si>
+  <si>
+    <t>Id_Commande</t>
+  </si>
+  <si>
+    <t>Prix_Commande</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,12 +193,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -233,14 +233,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -564,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V62"/>
+  <dimension ref="B1:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,53 +573,50 @@
     <col min="21" max="21" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1">
         <v>25</v>
       </c>
-      <c r="L1" s="1">
-        <v>31</v>
-      </c>
       <c r="M1" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1">
         <v>38</v>
       </c>
-      <c r="O1" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3"/>
@@ -639,14 +630,13 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>34</v>
+    </row>
+    <row r="3" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -667,15 +657,14 @@
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
+    </row>
+    <row r="4" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
         <f xml:space="preserve"> 1 + B3</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -694,15 +683,14 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
-        <f t="shared" ref="B5:B40" si="0" xml:space="preserve"> 1 + B4</f>
+    </row>
+    <row r="5" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <f t="shared" ref="B5:B42" si="0" xml:space="preserve"> 1 + B4</f>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -717,15 +705,14 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
+    </row>
+    <row r="6" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -740,15 +727,14 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
+    </row>
+    <row r="7" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -763,15 +749,14 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
+    </row>
+    <row r="8" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -786,15 +771,14 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6">
+    </row>
+    <row r="9" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -809,15 +793,14 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
+    </row>
+    <row r="10" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>6</v>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -838,15 +821,14 @@
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
+    </row>
+    <row r="11" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>7</v>
+      <c r="C11" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
@@ -865,15 +847,14 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
+    </row>
+    <row r="12" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
@@ -888,15 +869,14 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
+    </row>
+    <row r="13" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
@@ -911,15 +891,14 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6">
+    </row>
+    <row r="14" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>10</v>
+      <c r="C14" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -934,15 +913,14 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6">
+    </row>
+    <row r="15" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -957,15 +935,14 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6">
+    </row>
+    <row r="16" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>13</v>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -980,15 +957,14 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6">
+    </row>
+    <row r="17" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1003,15 +979,14 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6">
+    </row>
+    <row r="18" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>14</v>
+      <c r="C18" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1026,19 +1001,20 @@
       <c r="J18" s="2">
         <v>1</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6">
+    </row>
+    <row r="19" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1053,15 +1029,14 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6">
+    </row>
+    <row r="20" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1076,15 +1051,14 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6">
+    </row>
+    <row r="21" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>17</v>
+      <c r="C21" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1099,21 +1073,22 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6">
+    </row>
+    <row r="22" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
@@ -1122,22 +1097,21 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6">
+    </row>
+    <row r="23" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>19</v>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1145,22 +1119,21 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6">
+    </row>
+    <row r="24" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="2">
         <v>1</v>
       </c>
@@ -1168,86 +1141,82 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6">
+    </row>
+    <row r="25" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="13">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="C25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="13" t="s">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="13">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6">
+      <c r="J26" s="2"/>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>22</v>
+      <c r="C27" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="13">
-        <v>1</v>
+      <c r="L27" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6">
+    </row>
+    <row r="28" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1257,20 +1226,19 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="13">
+      <c r="L28" s="11">
         <v>1</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6">
+    </row>
+    <row r="29" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>24</v>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1280,20 +1248,19 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="13">
+      <c r="L29" s="11">
         <v>1</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6">
+    </row>
+    <row r="30" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1303,20 +1270,19 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="13">
+      <c r="L30" s="11">
         <v>1</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="6">
+    </row>
+    <row r="31" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>26</v>
+      <c r="C31" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1326,20 +1292,19 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="13">
+      <c r="L31" s="11">
         <v>1</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="6">
+    </row>
+    <row r="32" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>3</v>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1349,20 +1314,19 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O32" s="1"/>
+      <c r="L32" s="11">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>4</v>
+      <c r="C33" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1372,20 +1336,19 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13">
-        <v>1</v>
-      </c>
-      <c r="O33" s="1"/>
+      <c r="L33" s="11">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
     </row>
     <row r="34" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>41</v>
+      <c r="C34" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1396,19 +1359,18 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13">
-        <v>1</v>
-      </c>
-      <c r="O34" s="1"/>
+      <c r="M34" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N34" s="11"/>
     </row>
     <row r="35" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1419,19 +1381,18 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="13">
-        <v>1</v>
-      </c>
-      <c r="O35" s="1"/>
+      <c r="M35" s="11">
+        <v>1</v>
+      </c>
+      <c r="N35" s="11"/>
     </row>
     <row r="36" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1442,19 +1403,18 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="13">
-        <v>1</v>
-      </c>
-      <c r="O36" s="1"/>
+      <c r="M36" s="11">
+        <v>1</v>
+      </c>
+      <c r="N36" s="11"/>
     </row>
     <row r="37" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1465,19 +1425,18 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="13">
-        <v>1</v>
-      </c>
-      <c r="O37" s="1"/>
+      <c r="M37" s="11">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1"/>
     </row>
     <row r="38" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>30</v>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1488,19 +1447,18 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="11">
+        <v>1</v>
+      </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="13" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="39" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>31</v>
+      <c r="C39" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1511,19 +1469,18 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="M39" s="11">
+        <v>1</v>
+      </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="13">
-        <v>1</v>
-      </c>
     </row>
     <row r="40" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>32</v>
+      <c r="C40" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1535,116 +1492,159 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="13">
-        <v>1</v>
+      <c r="N40" s="11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
+      <c r="B41" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-    </row>
-    <row r="43" spans="2:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
+      <c r="B42" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
     </row>
     <row r="44" spans="2:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="14"/>
+      <c r="B44" s="12"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="2:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="14"/>
+      <c r="B46" s="12"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="14"/>
+      <c r="B47" s="12"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="14"/>
+      <c r="B48" s="12"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B49" s="14"/>
+      <c r="B49" s="12"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B50" s="14"/>
+      <c r="B50" s="12"/>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B51" s="14"/>
+      <c r="B51" s="12"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B52" s="14"/>
+      <c r="B52" s="12"/>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B53" s="14"/>
+      <c r="B53" s="12"/>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B54" s="12"/>
-      <c r="H54" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="12"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B56" s="12"/>
-      <c r="V56" s="8"/>
+      <c r="B56" s="10"/>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B57" s="12"/>
+      <c r="B57" s="10"/>
+      <c r="V57" s="6"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B58" s="12"/>
+      <c r="B58" s="10"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B59" s="12"/>
+      <c r="B59" s="10"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B60" s="12"/>
+      <c r="B60" s="10"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B61" s="12"/>
+      <c r="B61" s="10"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B62" s="12"/>
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B63" s="10"/>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B64" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BDD/Matrice des dépendances fonctionnelles.xlsx
+++ b/BDD/Matrice des dépendances fonctionnelles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>N°</t>
   </si>
@@ -56,18 +56,9 @@
     <t>Id_Manifestation</t>
   </si>
   <si>
-    <t>Nombre_Inscrit</t>
-  </si>
-  <si>
-    <t>Id_Vote</t>
-  </si>
-  <si>
     <t>Id_Evenement_Passe</t>
   </si>
   <si>
-    <t>Nom_Evenement_Passe</t>
-  </si>
-  <si>
     <t>Id_Commentaire</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>Prix_Produit</t>
   </si>
   <si>
-    <t>Prix_Panier</t>
-  </si>
-  <si>
     <t>Nombre_Vote</t>
   </si>
   <si>
@@ -128,18 +116,12 @@
     <t>Description_Activite</t>
   </si>
   <si>
-    <t>Description_Evenement_Passe</t>
-  </si>
-  <si>
     <t>Id_Image</t>
   </si>
   <si>
     <t>Image</t>
   </si>
   <si>
-    <t>Id_Likes</t>
-  </si>
-  <si>
     <t>Nombre_Likes</t>
   </si>
   <si>
@@ -149,13 +131,22 @@
     <t>Nombre_Vendu_Produit</t>
   </si>
   <si>
-    <t>Categorie_Produit</t>
-  </si>
-  <si>
     <t>Id_Commande</t>
   </si>
   <si>
     <t>Prix_Commande</t>
+  </si>
+  <si>
+    <t>Info_Manifestation</t>
+  </si>
+  <si>
+    <t>Image_Produit</t>
+  </si>
+  <si>
+    <t>Id_Categorie</t>
+  </si>
+  <si>
+    <t>Nom_Categorie</t>
   </si>
 </sst>
 </file>
@@ -224,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -244,6 +235,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:V64"/>
+  <dimension ref="B1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +576,7 @@
     <col min="21" max="21" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -588,31 +591,30 @@
         <v>12</v>
       </c>
       <c r="G1" s="1">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1">
         <v>14</v>
       </c>
-      <c r="H1" s="1">
-        <v>16</v>
-      </c>
       <c r="I1" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1">
         <v>21</v>
       </c>
       <c r="K1" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -629,47 +631,45 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="16"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="14"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <f xml:space="preserve"> 1 + B3</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
@@ -678,19 +678,18 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="14"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
-        <f t="shared" ref="B5:B42" si="0" xml:space="preserve"> 1 + B4</f>
+        <f t="shared" ref="B5:B39" si="0" xml:space="preserve"> 1 + B4</f>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -704,15 +703,16 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="14"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -726,15 +726,16 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="14"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -748,21 +749,24 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="14"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -770,15 +774,16 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="14"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -792,9 +797,10 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="14"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -806,23 +812,18 @@
       <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="14"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -834,27 +835,24 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="14"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
@@ -868,15 +866,13 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
@@ -890,21 +886,22 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="14"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>8</v>
+        <f xml:space="preserve"> 1 + B12</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -912,20 +909,21 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="14"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>1</v>
+      <c r="F15" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -934,15 +932,16 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="14"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -956,289 +955,308 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="14"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="14"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="14"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
+      <c r="C20" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="14"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="2"/>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="14"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="11">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="11">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="11">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="11">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="11">
+        <v>1</v>
+      </c>
       <c r="K27" s="1"/>
-      <c r="L27" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="L27" s="11"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="11">
+        <v>1</v>
+      </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="11">
-        <v>1</v>
-      </c>
+      <c r="L28" s="13"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1246,21 +1264,22 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="11">
+        <v>1</v>
+      </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="11">
-        <v>1</v>
-      </c>
+      <c r="L29" s="11"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1269,20 +1288,21 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="11">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1291,20 +1311,23 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="11">
+        <v>1</v>
+      </c>
       <c r="L31" s="11">
         <v>1</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M31" s="11"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1313,20 +1336,23 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
       <c r="L32" s="11">
         <v>1</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="10"/>
     </row>
     <row r="33" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1335,20 +1361,21 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="11">
-        <v>1</v>
-      </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="K33" s="11">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="10"/>
     </row>
     <row r="34" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1357,20 +1384,23 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="N34" s="11"/>
+      <c r="K34" s="11">
+        <v>1</v>
+      </c>
+      <c r="L34" s="11">
+        <v>1</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
     </row>
     <row r="35" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1379,20 +1409,21 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="11">
+        <v>1</v>
+      </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="11">
-        <v>1</v>
-      </c>
-      <c r="N35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
     </row>
     <row r="36" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1402,19 +1433,20 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="11">
-        <v>1</v>
-      </c>
-      <c r="N36" s="11"/>
+      <c r="L36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="10"/>
     </row>
     <row r="37" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1424,19 +1456,20 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="11">
-        <v>1</v>
-      </c>
-      <c r="N37" s="1"/>
+      <c r="L37" s="11">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="10"/>
     </row>
     <row r="38" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1446,19 +1479,20 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="11">
-        <v>1</v>
-      </c>
-      <c r="N38" s="1"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
     </row>
     <row r="39" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1467,123 +1501,56 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="11"/>
       <c r="M39" s="11">
         <v>1</v>
       </c>
-      <c r="N39" s="1"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
     </row>
     <row r="40" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="5">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
     </row>
     <row r="41" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="5">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="11">
-        <v>1</v>
-      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
     </row>
     <row r="42" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="5">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="11">
-        <v>1</v>
-      </c>
+      <c r="B42" s="12"/>
+      <c r="O42" s="10"/>
     </row>
     <row r="43" spans="2:15" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
       <c r="O43" s="10"/>
     </row>
     <row r="44" spans="2:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="12"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
       <c r="O44" s="10"/>
     </row>
     <row r="45" spans="2:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="12"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="12"/>
@@ -1605,21 +1572,21 @@
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52" s="12"/>
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53" s="12"/>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B54" s="12"/>
+      <c r="B54" s="10"/>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B55" s="12"/>
+      <c r="B55" s="10"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
-      <c r="H56" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="10"/>
@@ -1639,12 +1606,6 @@
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="10"/>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B63" s="10"/>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B64" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
